--- a/columns.xlsx
+++ b/columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandershanmugam/Documents/GitHub/cml1/explorative-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FC8823B9-E932-EE43-BE44-A6D8DAAAC0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{26B38E2D-A67F-514F-AD0F-FF1B4F20518E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
   </bookViews>
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:XFD109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4017,26 +4017,26 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="4" t="s">
+    <row r="109" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="2">
         <v>12799</v>
       </c>
-      <c r="D109" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E109" s="4">
+      <c r="D109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2">
         <v>10</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="4" t="s">
+      <c r="F109" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="2" t="s">
         <v>161</v>
       </c>
     </row>

--- a/columns.xlsx
+++ b/columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandershanmugam/Documents/GitHub/cml1/explorative-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{26B38E2D-A67F-514F-AD0F-FF1B4F20518E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{902BDDF9-13E1-A443-B1B6-307DDC397C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100"/>
   </bookViews>
   <sheets>
     <sheet name="counts" sheetId="1" r:id="rId1"/>
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:XFD109"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1649,49 +1649,49 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11">
-        <v>13378</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="5">
+        <v>13378</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>12543</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="F11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C12">
-        <v>13378</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="2">
+        <v>13378</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
         <v>13355</v>
       </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2308,29 +2308,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="2">
         <v>6</v>
       </c>
-      <c r="D36" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="D36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="5" t="s">
+      <c r="F36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2597,26 +2597,26 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="5">
-        <v>13378</v>
-      </c>
-      <c r="D47" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="C47" s="2">
+        <v>13378</v>
+      </c>
+      <c r="D47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
         <v>12348</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="5" t="s">
+      <c r="F47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2686,26 +2686,26 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
+    <row r="51" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="5">
-        <v>13378</v>
-      </c>
-      <c r="D51" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="C51" s="2">
+        <v>13378</v>
+      </c>
+      <c r="D51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
         <v>13355</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="5" t="s">
+      <c r="F51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4066,5 +4066,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/columns.xlsx
+++ b/columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandershanmugam/Documents/GitHub/cml1/explorative-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{902BDDF9-13E1-A443-B1B6-307DDC397C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A14D3-DD9D-FA49-8BB4-E5F9C3DB9635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="counts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="168">
   <si>
     <t>Merged as</t>
   </si>
@@ -519,12 +519,18 @@
   </si>
   <si>
     <t>Address data</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>canton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -661,7 +667,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +871,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1026,15 +1044,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1389,11 +1410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,199 +1451,199 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
-        <v>13378</v>
-      </c>
-      <c r="D2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>13378</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13378</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
-        <v>13378</v>
-      </c>
-      <c r="D3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>13378</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13378</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>12446</v>
       </c>
-      <c r="D4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>1505</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>11634</v>
       </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
         <v>531</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>4696</v>
       </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>1706</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2780</v>
       </c>
-      <c r="D7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>493</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>12663</v>
       </c>
-      <c r="D8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
         <v>110</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3">
-        <v>13378</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>6330</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1649,974 +1670,974 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5">
-        <v>13378</v>
-      </c>
-      <c r="D11" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="C11" s="4">
+        <v>13378</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
         <v>12543</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="2">
-        <v>13378</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="C12" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>13355</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13">
-        <v>13378</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
         <v>12713</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>5315</v>
       </c>
-      <c r="D14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>23</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>451</v>
       </c>
-      <c r="D15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>322</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>430</v>
       </c>
-      <c r="D16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>182</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>206</v>
       </c>
-      <c r="D17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>12</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>460</v>
       </c>
-      <c r="D18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>21</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>158</v>
       </c>
-      <c r="D19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>123</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>149</v>
       </c>
-      <c r="D20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>99</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="D20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>99</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>65</v>
       </c>
-      <c r="D21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>7</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>42</v>
       </c>
-      <c r="D22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
         <v>40</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>160</v>
       </c>
-      <c r="D23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>12</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>60</v>
       </c>
-      <c r="D24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
         <v>58</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>159</v>
       </c>
-      <c r="D25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>151</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>111</v>
       </c>
-      <c r="D26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <v>86</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>66</v>
       </c>
-      <c r="D27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
         <v>66</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>64</v>
       </c>
-      <c r="D28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>50</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>27</v>
       </c>
-      <c r="D29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
         <v>27</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>14</v>
       </c>
-      <c r="D30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
         <v>14</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>67</v>
       </c>
-      <c r="D31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>11</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="D31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>24</v>
       </c>
-      <c r="D32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
         <v>6</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>27</v>
       </c>
-      <c r="D33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
         <v>24</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>27</v>
       </c>
-      <c r="D34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
         <v>24</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="2" t="s">
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>28</v>
       </c>
-      <c r="D35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>6</v>
       </c>
-      <c r="D36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>10</v>
       </c>
-      <c r="D37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
         <v>4</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="F37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="C38" s="1">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>6</v>
       </c>
-      <c r="D39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
         <v>6</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="F39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>12697</v>
       </c>
-      <c r="D40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="D40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
         <v>1512</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="3" t="s">
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>5414</v>
       </c>
-      <c r="D41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="D41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
         <v>23</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="F41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>11874</v>
       </c>
-      <c r="D42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
         <v>531</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>2842</v>
       </c>
-      <c r="D43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
         <v>497</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="F43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>4794</v>
       </c>
-      <c r="D44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="D44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
         <v>1713</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="F44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>12918</v>
       </c>
-      <c r="D45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
         <v>111</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="F45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>13361</v>
       </c>
-      <c r="D46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
         <v>6305</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="F46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="2">
-        <v>13378</v>
-      </c>
-      <c r="D47" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="C47" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
         <v>12348</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="F47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2640,1427 +2661,1437 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="3">
-        <v>13378</v>
-      </c>
-      <c r="D49" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="C51" s="5">
+        <v>13378</v>
+      </c>
+      <c r="D51" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
         <v>6330</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="3" t="s">
+      <c r="F51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+    <row r="52" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="2">
-        <v>13378</v>
-      </c>
-      <c r="D50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="C52" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
         <v>1333</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="2" t="s">
+      <c r="F52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+    <row r="53" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="2">
-        <v>13378</v>
-      </c>
-      <c r="D51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="C53" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
         <v>13355</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="F53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52">
-        <v>13378</v>
-      </c>
-      <c r="D52" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>13358</v>
-      </c>
-      <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53">
-        <v>13361</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>5349</v>
-      </c>
-      <c r="F53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54">
+        <v>13378</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>13358</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="1">
+        <v>13361</v>
+      </c>
+      <c r="D55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5349</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C54">
+      <c r="C56" s="1">
         <v>13361</v>
       </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54">
+      <c r="D56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
         <v>5347</v>
       </c>
-      <c r="F54" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="F56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="57" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C55">
-        <v>13378</v>
-      </c>
-      <c r="D55" t="b">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="C57" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
         <v>2824</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+      <c r="G57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C56">
-        <v>13378</v>
-      </c>
-      <c r="D56" t="b">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="C58" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
         <v>2671</v>
       </c>
-      <c r="F56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+      <c r="F58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C57">
-        <v>13378</v>
-      </c>
-      <c r="D57" t="b">
-        <v>1</v>
-      </c>
-      <c r="E57">
+      <c r="C59" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
         <v>2119</v>
       </c>
-      <c r="F57" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+      <c r="F59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C58">
-        <v>13378</v>
-      </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
-      <c r="E58">
+      <c r="C60" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
         <v>1048</v>
       </c>
-      <c r="F58" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+      <c r="F60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C59">
-        <v>13378</v>
-      </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="C61" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
         <v>2821</v>
       </c>
-      <c r="F59" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+      <c r="F61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C60">
-        <v>13378</v>
-      </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E60">
+      <c r="C62" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
         <v>1295</v>
       </c>
-      <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+      <c r="F62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C61">
-        <v>13378</v>
-      </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
-      <c r="E61">
+      <c r="C63" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
         <v>2821</v>
       </c>
-      <c r="F61" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+      <c r="F63" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C62">
-        <v>13378</v>
-      </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
-      <c r="E62">
+      <c r="C64" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
         <v>1307</v>
       </c>
-      <c r="F62" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+      <c r="F64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C63">
-        <v>13378</v>
-      </c>
-      <c r="D63" t="b">
-        <v>1</v>
-      </c>
-      <c r="E63">
+      <c r="C65" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
         <v>906</v>
       </c>
-      <c r="F63" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+      <c r="F65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C64">
-        <v>13378</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
-      <c r="E64">
+      <c r="C66" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
         <v>484</v>
       </c>
-      <c r="F64" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+      <c r="F66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C65">
-        <v>13378</v>
-      </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E65">
+      <c r="C67" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
         <v>2817</v>
       </c>
-      <c r="F65" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+      <c r="F67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C66">
-        <v>13378</v>
-      </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E66">
+      <c r="C68" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D68" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
         <v>2816</v>
       </c>
-      <c r="F66" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+      <c r="F68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C67">
-        <v>13378</v>
-      </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
-      <c r="E67">
+      <c r="C69" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
         <v>2804</v>
       </c>
-      <c r="F67" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+      <c r="F69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C68">
-        <v>13378</v>
-      </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-      <c r="E68">
+      <c r="C70" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
         <v>2821</v>
       </c>
-      <c r="F68" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+      <c r="F70" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C69">
-        <v>13378</v>
-      </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69">
+      <c r="C71" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D71" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
         <v>2821</v>
       </c>
-      <c r="F69" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+      <c r="F71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C70">
-        <v>13378</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70">
+      <c r="C72" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
         <v>2790</v>
       </c>
-      <c r="F70" t="s">
-        <v>99</v>
-      </c>
-      <c r="G70" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+      <c r="F72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C71">
-        <v>13378</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71">
+      <c r="C73" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D73" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
         <v>1467</v>
       </c>
-      <c r="F71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+      <c r="F73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C72">
-        <v>13378</v>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72">
+      <c r="C74" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D74" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
         <v>745</v>
       </c>
-      <c r="F72" t="s">
-        <v>99</v>
-      </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+      <c r="F74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C73">
-        <v>13378</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73">
+      <c r="C75" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D75" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
         <v>238</v>
       </c>
-      <c r="F73" t="s">
-        <v>99</v>
-      </c>
-      <c r="G73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+      <c r="F75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C74">
-        <v>13378</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74">
+      <c r="C76" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D76" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="3">
         <v>2821</v>
       </c>
-      <c r="F74" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+      <c r="F76" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C75">
-        <v>13378</v>
-      </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75">
+      <c r="C77" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D77" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
         <v>2813</v>
       </c>
-      <c r="F75" t="s">
-        <v>99</v>
-      </c>
-      <c r="G75" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+      <c r="F77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C76">
-        <v>13378</v>
-      </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76">
+      <c r="C78" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
         <v>2678</v>
       </c>
-      <c r="F76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+      <c r="F78" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C77">
-        <v>13378</v>
-      </c>
-      <c r="D77" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77">
+      <c r="C79" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
         <v>1274</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+      <c r="G79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C78">
-        <v>13378</v>
-      </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78">
+      <c r="C80" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D80" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3">
         <v>2821</v>
       </c>
-      <c r="F78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+      <c r="F80" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C79">
-        <v>13378</v>
-      </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79">
+      <c r="C81" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D81" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3">
         <v>1062</v>
       </c>
-      <c r="F79" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+      <c r="F81" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C80">
-        <v>13378</v>
-      </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80">
+      <c r="C82" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D82" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="3">
         <v>1055</v>
       </c>
-      <c r="F80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+      <c r="F82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C81">
-        <v>13378</v>
-      </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81">
+      <c r="C83" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D83" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
         <v>960</v>
       </c>
-      <c r="F81" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+      <c r="F83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C82">
-        <v>13378</v>
-      </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82">
+      <c r="C84" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D84" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
         <v>1062</v>
       </c>
-      <c r="F82" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+      <c r="F84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C83">
-        <v>13378</v>
-      </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83">
+      <c r="C85" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D85" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3">
         <v>98</v>
       </c>
-      <c r="F83" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+      <c r="F85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C84">
-        <v>13378</v>
-      </c>
-      <c r="D84" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84">
+      <c r="C86" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D86" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3">
         <v>1006</v>
       </c>
-      <c r="F84" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+      <c r="F86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C85">
-        <v>13378</v>
-      </c>
-      <c r="D85" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85">
+      <c r="C87" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D87" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3">
         <v>1068</v>
       </c>
-      <c r="F85" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+      <c r="F87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C86">
-        <v>13378</v>
-      </c>
-      <c r="D86" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86">
+      <c r="C88" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D88" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3">
         <v>966</v>
       </c>
-      <c r="F86" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+      <c r="F88" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C87">
+      <c r="C89" s="3">
         <v>8468</v>
       </c>
-      <c r="D87" t="b">
-        <v>0</v>
-      </c>
-      <c r="E87">
+      <c r="D89" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>834</v>
       </c>
-      <c r="F87" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+      <c r="F89" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C88">
+      <c r="C90" s="3">
         <v>13061</v>
       </c>
-      <c r="D88" t="b">
-        <v>0</v>
-      </c>
-      <c r="E88">
+      <c r="D90" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
         <v>1030</v>
       </c>
-      <c r="F88" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+      <c r="F90" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C89">
+      <c r="C91" s="3">
         <v>9602</v>
       </c>
-      <c r="D89" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89">
+      <c r="D91" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>868</v>
       </c>
-      <c r="F89" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+      <c r="F91" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C90">
+      <c r="C92" s="3">
         <v>13226</v>
       </c>
-      <c r="D90" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90">
+      <c r="D92" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
         <v>1047</v>
       </c>
-      <c r="F90" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+      <c r="F92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C91">
+      <c r="C93" s="3">
         <v>11251</v>
       </c>
-      <c r="D91" t="b">
-        <v>0</v>
-      </c>
-      <c r="E91">
+      <c r="D93" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
         <v>924</v>
       </c>
-      <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+      <c r="F93" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C92">
+      <c r="C94" s="3">
         <v>12906</v>
       </c>
-      <c r="D92" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92">
+      <c r="D94" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>1009</v>
       </c>
-      <c r="F92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+      <c r="F94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C93">
+      <c r="C95" s="3">
         <v>7076</v>
       </c>
-      <c r="D93" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93">
+      <c r="D95" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
         <v>436</v>
       </c>
-      <c r="F93" t="s">
-        <v>99</v>
-      </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+      <c r="F95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C94">
+      <c r="C96" s="3">
         <v>10706</v>
       </c>
-      <c r="D94" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94">
+      <c r="D96" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>867</v>
       </c>
-      <c r="F94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+      <c r="F96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C95">
+      <c r="C97" s="3">
         <v>13279</v>
       </c>
-      <c r="D95" t="b">
-        <v>0</v>
-      </c>
-      <c r="E95">
+      <c r="D97" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
         <v>1052</v>
       </c>
-      <c r="F95" t="s">
-        <v>99</v>
-      </c>
-      <c r="G95" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+      <c r="F97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C96">
+      <c r="C98" s="3">
         <v>13325</v>
       </c>
-      <c r="D96" t="b">
-        <v>0</v>
-      </c>
-      <c r="E96">
+      <c r="D98" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
         <v>1064</v>
       </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+      <c r="F98" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C97">
-        <v>13378</v>
-      </c>
-      <c r="D97" t="b">
-        <v>1</v>
-      </c>
-      <c r="E97">
+      <c r="C99" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3">
         <v>1069</v>
       </c>
-      <c r="F97" t="s">
-        <v>99</v>
-      </c>
-      <c r="G97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+      <c r="F99" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C98">
-        <v>13378</v>
-      </c>
-      <c r="D98" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98">
+      <c r="C100" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D100" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="F98" t="s">
-        <v>99</v>
-      </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+      <c r="F100" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C99">
-        <v>13378</v>
-      </c>
-      <c r="D99" t="b">
-        <v>1</v>
-      </c>
-      <c r="E99">
+      <c r="C101" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D101" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3">
         <v>927</v>
       </c>
-      <c r="F99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+      <c r="F101" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C100">
-        <v>13378</v>
-      </c>
-      <c r="D100" t="b">
-        <v>1</v>
-      </c>
-      <c r="E100">
+      <c r="C102" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D102" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" s="3">
         <v>958</v>
       </c>
-      <c r="F100" t="s">
-        <v>99</v>
-      </c>
-      <c r="G100" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+      <c r="F102" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C101">
-        <v>13378</v>
-      </c>
-      <c r="D101" t="b">
-        <v>1</v>
-      </c>
-      <c r="E101">
+      <c r="C103" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D103" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3">
         <v>452</v>
       </c>
-      <c r="F101" t="s">
-        <v>99</v>
-      </c>
-      <c r="G101" t="s">
-        <v>11</v>
-      </c>
-      <c r="I101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+      <c r="F103" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C102">
-        <v>13378</v>
-      </c>
-      <c r="D102" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102">
+      <c r="C104" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D104" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3">
         <v>263</v>
       </c>
-      <c r="F102" t="s">
-        <v>99</v>
-      </c>
-      <c r="G102" t="s">
-        <v>11</v>
-      </c>
-      <c r="I102" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+      <c r="F104" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C103">
-        <v>13378</v>
-      </c>
-      <c r="D103" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103">
+      <c r="C105" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D105" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3">
         <v>676</v>
       </c>
-      <c r="F103" t="s">
-        <v>99</v>
-      </c>
-      <c r="G103" t="s">
-        <v>11</v>
-      </c>
-      <c r="I103" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+      <c r="F105" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C104">
-        <v>13378</v>
-      </c>
-      <c r="D104" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104">
+      <c r="C106" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D106" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
         <v>825</v>
       </c>
-      <c r="F104" t="s">
-        <v>99</v>
-      </c>
-      <c r="G104" t="s">
-        <v>11</v>
-      </c>
-      <c r="I104" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+      <c r="F106" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C105">
-        <v>13378</v>
-      </c>
-      <c r="D105" t="b">
-        <v>1</v>
-      </c>
-      <c r="E105">
+      <c r="C107" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D107" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3">
         <v>911</v>
       </c>
-      <c r="F105" t="s">
-        <v>99</v>
-      </c>
-      <c r="G105" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+      <c r="F107" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C108" s="3">
         <v>12362</v>
       </c>
-      <c r="D106" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="4">
+      <c r="D108" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
         <v>1327</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I106" s="4" t="s">
+      <c r="F108" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="109" spans="1:9" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C107">
-        <v>13378</v>
-      </c>
-      <c r="D107" t="b">
-        <v>1</v>
-      </c>
-      <c r="E107">
+      <c r="C109" s="3">
+        <v>13378</v>
+      </c>
+      <c r="D109" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3">
         <v>21</v>
       </c>
-      <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>11</v>
-      </c>
-      <c r="I107" s="1" t="s">
+      <c r="F109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="4" t="s">
+    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C110" s="3">
         <v>12308</v>
       </c>
-      <c r="D108" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E108" s="4">
+      <c r="D110" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
         <v>533</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I108" s="4" t="s">
+      <c r="F110" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="2" t="s">
+    <row r="111" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C111" s="1">
         <v>12799</v>
       </c>
-      <c r="D109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="D111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
         <v>10</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="2" t="s">
+      <c r="F111" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2"/>
-      <c r="B114" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1"/>
+      <c r="B116" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="4"/>
-      <c r="B115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
+      <c r="B118" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" t="s">
         <v>165</v>
       </c>
     </row>

--- a/columns.xlsx
+++ b/columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandershanmugam/Documents/GitHub/cml1/explorative-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A14D3-DD9D-FA49-8BB4-E5F9C3DB9635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B326C-9DA0-1541-B619-24946F551F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="169">
   <si>
     <t>Merged as</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>canton</t>
+  </si>
+  <si>
+    <t>rooms, living_space</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1417,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1647,26 +1650,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>13378</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>13167</v>
       </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2641,23 +2644,26 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>13202</v>
       </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
         <v>2741</v>
       </c>
-      <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2740,26 +2746,26 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="54" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C54">
-        <v>13378</v>
-      </c>
-      <c r="D54" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54">
+      <c r="C54" s="1">
+        <v>13378</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
         <v>13358</v>
       </c>
-      <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="F54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4002,7 +4008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="3" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="3" customFormat="1" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>156</v>
       </c>
@@ -4025,26 +4031,29 @@
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="3" t="s">
+    <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="1">
         <v>12308</v>
       </c>
-      <c r="D110" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3">
+      <c r="D110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
         <v>533</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110" s="3" t="s">
+      <c r="F110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>159</v>
       </c>
     </row>

--- a/columns.xlsx
+++ b/columns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandershanmugam/Documents/GitHub/cml1/explorative-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9B326C-9DA0-1541-B619-24946F551F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE8E944-BB02-914F-A404-30A9C2A99028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1417,7 +1417,7 @@
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
